--- a/exp11/data/readings.xlsx
+++ b/exp11/data/readings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>PI</t>
   </si>
@@ -38,7 +38,13 @@
     <t>w</t>
   </si>
   <si>
+    <t>lambda</t>
+  </si>
+  <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
   <si>
     <t>Avg</t>
@@ -60,6 +66,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -143,10 +150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="I18" activeCellId="0" pane="topLeft" sqref="I18"/>
+      <selection activeCell="K8" activeCellId="0" pane="topLeft" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -154,7 +161,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
@@ -162,7 +169,7 @@
         <v>3.1415</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
@@ -170,7 +177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.85" outlineLevel="0" r="4">
       <c r="E4" s="0" t="s">
         <v>3</v>
       </c>
@@ -183,10 +190,13 @@
       <c r="H4" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="J4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>7</v>
@@ -206,8 +216,11 @@
         <f aca="false">2*$C$1*G5</f>
         <v>8.14462962962963</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="J5" s="0" t="n">
+        <v>0.270406</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="E6" s="0" t="n">
         <v>5.4</v>
       </c>
@@ -223,8 +236,11 @@
         <f aca="false">2*$C$1*G6</f>
         <v>8.14462962962963</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="J6" s="0" t="n">
+        <v>0.240883</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="E7" s="0" t="n">
         <v>5.6</v>
       </c>
@@ -240,8 +256,19 @@
         <f aca="false">2*$C$1*G7</f>
         <v>7.85375</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="I7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">AVERAGE(J5:J6)</f>
+        <v>0.2556445</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">STDEV(J5:J6)/SQRT(2)</f>
+        <v>0.0147615</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="E8" s="0" t="n">
         <v>5.6</v>
       </c>
@@ -258,7 +285,7 @@
         <v>7.85375</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="E9" s="0" t="n">
         <v>5.6</v>
       </c>
@@ -275,9 +302,9 @@
         <v>7.85375</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="D10" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">AVERAGE(E5:E9)</f>
@@ -296,15 +323,15 @@
         <v>7.97010185185185</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.85" outlineLevel="0" r="13">
       <c r="E13" s="0" t="s">
         <v>3</v>
       </c>
@@ -318,9 +345,9 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>7</v>
@@ -341,7 +368,7 @@
         <v>7.33016666666667</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="E15" s="0" t="n">
         <v>6</v>
       </c>
@@ -358,7 +385,7 @@
         <v>7.33016666666667</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
@@ -375,7 +402,7 @@
         <v>7.33016666666667</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="E17" s="0" t="n">
         <v>6.2</v>
       </c>
@@ -392,7 +419,7 @@
         <v>7.09370967741936</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="E18" s="0" t="n">
         <v>6.2</v>
       </c>
@@ -409,9 +436,9 @@
         <v>7.09370967741936</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="D19" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">AVERAGE(E14:E18)</f>
@@ -430,15 +457,15 @@
         <v>7.23558387096774</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.85" outlineLevel="0" r="22">
       <c r="E22" s="0" t="s">
         <v>3</v>
       </c>
@@ -452,9 +479,9 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>7</v>
@@ -475,7 +502,7 @@
         <v>7.09370967741936</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="E24" s="0" t="n">
         <v>6.2</v>
       </c>
@@ -492,7 +519,7 @@
         <v>7.09370967741936</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="E25" s="0" t="n">
         <v>6.2</v>
       </c>
@@ -509,7 +536,7 @@
         <v>7.09370967741936</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="E26" s="0" t="n">
         <v>6.2</v>
       </c>
@@ -526,7 +553,7 @@
         <v>7.09370967741936</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="E27" s="0" t="n">
         <v>6.4</v>
       </c>
@@ -543,9 +570,9 @@
         <v>6.87203125</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="D28" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28" s="0" t="n">
         <f aca="false">AVERAGE(E23:E27)</f>

--- a/exp11/data/readings.xlsx
+++ b/exp11/data/readings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>PI</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
   <si>
     <t>CO2</t>
@@ -153,7 +156,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
-      <selection activeCell="K8" activeCellId="0" pane="topLeft" sqref="K8"/>
+      <selection activeCell="L18" activeCellId="0" pane="topLeft" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -367,6 +370,12 @@
         <f aca="false">2*$C$1*G14</f>
         <v>7.33016666666667</v>
       </c>
+      <c r="J14" s="0" t="n">
+        <v>0.489611</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="E15" s="0" t="n">
@@ -384,6 +393,9 @@
         <f aca="false">2*$C$1*G15</f>
         <v>7.33016666666667</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <v>0.230706</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="E16" s="0" t="n">
@@ -401,6 +413,17 @@
         <f aca="false">2*$C$1*G16</f>
         <v>7.33016666666667</v>
       </c>
+      <c r="I16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">AVERAGE(J14:J15)</f>
+        <v>0.3601585</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">STDEV(J14:J15)/SQRT(2)</f>
+        <v>0.1294525</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="E17" s="0" t="n">
@@ -462,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.85" outlineLevel="0" r="22">
@@ -501,6 +524,9 @@
         <f aca="false">2*$C$1*G23</f>
         <v>7.09370967741936</v>
       </c>
+      <c r="J23" s="0" t="n">
+        <v>0.397348</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="E24" s="0" t="n">
@@ -518,6 +544,9 @@
         <f aca="false">2*$C$1*G24</f>
         <v>7.09370967741936</v>
       </c>
+      <c r="J24" s="0" t="n">
+        <v>0.354952</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="E25" s="0" t="n">
@@ -534,6 +563,17 @@
       <c r="H25" s="0" t="n">
         <f aca="false">2*$C$1*G25</f>
         <v>7.09370967741936</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">AVERAGE(J23:J24)</f>
+        <v>0.37615</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">STDEV(J23:J24)/SQRT(2)</f>
+        <v>0.021198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
